--- a/MicroGrids/Results/Size.xlsx
+++ b/MicroGrids/Results/Size.xlsx
@@ -429,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>36001.37814881148</v>
+        <v>34021.40073141063</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>184282.9124405129</v>
+        <v>173216.2381932754</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>147033.9282813878</v>
+        <v>146842.4863074072</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7022.386265997877</v>
+        <v>4959.039313175755</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -533,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
